--- a/v0.95-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.95-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3103289-B755-4894-B56C-0F630E787FF0}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50D60373-0527-4507-9179-8E9D5D6FC1F1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="213">
   <si>
     <t>Object</t>
   </si>
@@ -688,6 +688,9 @@
 Alimentatie
 Pensioen
 AnderInkomen</t>
+  </si>
+  <si>
+    <t>1-Ja 2-Nee 8-Niet van toepassing</t>
   </si>
 </sst>
 </file>
@@ -787,11 +790,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,8 +1113,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1130,13 +1133,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1295,9 +1298,6 @@
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
@@ -1309,6 +1309,9 @@
       <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F16" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
@@ -2037,8 +2040,8 @@
       <c r="D83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F83" t="s">
-        <v>171</v>
+      <c r="F83" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2300,7 +2303,7 @@
       <c r="B106" t="s">
         <v>116</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="13" t="s">
         <v>211</v>
       </c>
       <c r="D106" s="4" t="s">

--- a/v0.95-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.95-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50D60373-0527-4507-9179-8E9D5D6FC1F1}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC6901D-9536-4B95-9A26-ED88D4034B79}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
+    <workbookView xWindow="1580" yWindow="630" windowWidth="17620" windowHeight="11370" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
   <sheets>
     <sheet name="LO Behandelen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="213">
   <si>
     <t>Object</t>
   </si>
@@ -1111,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B90832-9B45-4A7C-8E70-F9E2CC066ECE}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2214,62 +2214,62 @@
       <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>14</v>
+      <c r="B99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
         <v>181</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>181</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
         <v>31</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>56</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E102" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>21</v>
@@ -2277,52 +2277,55 @@
       <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>131</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>104</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="D105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" s="9"/>
-    </row>
-    <row r="106" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
+      <c r="D106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
         <v>116</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F106" s="9"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
-        <v>73</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>5</v>
@@ -2331,118 +2334,113 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" t="s">
-        <v>161</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>204</v>
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
+        <v>136</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
         <v>137</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>137</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E111" s="9"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>78</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B113" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="6" t="s">
+      <c r="D113" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B113" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
         <v>138</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E113" s="9"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>75</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>63</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E115" t="s">
         <v>91</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F115" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B115" t="s">
-        <v>179</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F116" t="s">
-        <v>185</v>
+      <c r="F116" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E117" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F117" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>58</v>
@@ -2451,12 +2449,12 @@
         <v>91</v>
       </c>
       <c r="F118" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>58</v>
@@ -2465,92 +2463,98 @@
         <v>91</v>
       </c>
       <c r="F119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>81</v>
-      </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E120" t="s">
-        <v>139</v>
+        <v>91</v>
+      </c>
+      <c r="F120" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>81</v>
+      </c>
       <c r="B121" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E122" t="s">
-        <v>176</v>
-      </c>
-      <c r="F122" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="E123" t="s">
+        <v>176</v>
       </c>
       <c r="F123" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
+        <v>82</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
         <v>69</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" t="s">
-        <v>141</v>
-      </c>
       <c r="D125" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>137</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>142</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B127" t="s">
-        <v>13</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>4</v>
@@ -2558,29 +2562,29 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
         <v>143</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="D129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>105</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>53</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B130" t="s">
-        <v>52</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>4</v>
@@ -2588,7 +2592,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>4</v>
@@ -2596,7 +2600,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>4</v>
@@ -2604,7 +2608,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>4</v>
@@ -2612,7 +2616,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>4</v>
@@ -2620,7 +2624,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>4</v>
@@ -2628,120 +2632,117 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
         <v>50</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="D137" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>60</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>96</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B138" t="s">
-        <v>108</v>
-      </c>
       <c r="D138" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E138" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E140" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E141" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E143" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
+        <v>102</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E144" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
         <v>94</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="D145" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
         <v>95</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F145" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>145</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B146" t="s">
-        <v>122</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>4</v>
@@ -2752,7 +2753,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>4</v>
@@ -2763,110 +2764,121 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
+        <v>123</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
         <v>146</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="D149" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>77</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>147</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="D150" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B150" t="s">
-        <v>114</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
+        <v>114</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
         <v>115</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="D152" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>106</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>24</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B153" t="s">
+      <c r="D153" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
         <v>23</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="D154" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>191</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>186</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D155" s="4" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B155" t="s">
-        <v>148</v>
-      </c>
-      <c r="C155" t="s">
-        <v>124</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="C156" t="s">
+        <v>124</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
+        <v>150</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
         <v>151</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D159" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/v0.95-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.95-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC6901D-9536-4B95-9A26-ED88D4034B79}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103FE98F-E16B-447B-B958-67EAC6C6862E}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="630" windowWidth="17620" windowHeight="11370" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
+    <workbookView xWindow="3430" yWindow="340" windowWidth="17620" windowHeight="11370" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
   <sheets>
     <sheet name="LO Behandelen" sheetId="1" r:id="rId1"/>
@@ -1113,8 +1113,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1686,13 +1686,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
+      <c r="B50" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="D50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>167</v>
       </c>
     </row>

--- a/v0.95-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.95-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-behandelen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103FE98F-E16B-447B-B958-67EAC6C6862E}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{C3C4169C-0EB4-49B5-9316-841F6E8656E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9167989B-F444-4F8E-82CD-B890355C6ECE}"/>
   <bookViews>
-    <workbookView xWindow="3430" yWindow="340" windowWidth="17620" windowHeight="11370" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
+    <workbookView xWindow="8060" yWindow="3160" windowWidth="27060" windowHeight="18100" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
   <sheets>
     <sheet name="LO Behandelen" sheetId="1" r:id="rId1"/>
@@ -634,9 +634,6 @@
     <t>IndicatieInstellingVolledigVerzorgd</t>
   </si>
   <si>
-    <t>V0.94</t>
-  </si>
-  <si>
     <t>Alimentatie</t>
   </si>
   <si>
@@ -691,6 +688,9 @@
   </si>
   <si>
     <t>1-Ja 2-Nee 8-Niet van toepassing</t>
+  </si>
+  <si>
+    <t>V0.95</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1113,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1290,38 +1290,38 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
         <v>196</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="D16" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -2041,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2113,7 +2113,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B90" t="s">
         <v>122</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
         <v>200</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -2316,7 +2316,7 @@
         <v>116</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>21</v>
@@ -2360,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -2380,7 +2380,7 @@
         <v>78</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>4</v>
@@ -2424,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
